--- a/data/compared_results.xlsx
+++ b/data/compared_results.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>395.965</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>346166.8828190081</v>
+        <v>346143.41481</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>145841036.87</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>32935375.07333333</v>
+        <v>32768987.27333333</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38699.65</v>
@@ -568,7 +568,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D7" s="4" t="n">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>84621881.78372499</v>
+        <v>84621881.78285804</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>201165.25</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D10" s="4" t="n">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>800.8440000000001</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>937408.5050296185</v>
+        <v>937344.9544350001</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>798756199.692</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D13" s="4" t="n">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>800.8440000000001</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>46773166.14666667</v>
+        <v>46536870.54666667</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>47073610.32</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D16" s="4" t="n">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>800.8440000000001</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>389159574.0595695</v>
+        <v>389159574.0555825</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>792381481.452</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D19" s="4" t="n">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>634050.3070390471</v>
+        <v>634007.322285</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>630772.505</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D22" s="4" t="n">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>800.8440000000001</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>42022642.12666667</v>
+        <v>41810345.92666667</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>42292571.64</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D25" s="4" t="n">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>395.965</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>368717775.02659</v>
+        <v>368717775.0228124</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>371201348.9</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D28" s="4" t="n">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.939958729471699</v>
+        <v>0.939795</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>395.965</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>658671.3798836457</v>
+        <v>658556.647275</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>277470493.925</v>
@@ -968,7 +968,7 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D31" s="4" t="n">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>442093154.9466667</v>
+        <v>439859723.3466667</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>519467.3</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D34" s="4" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D37" s="4" t="n">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>422680.7809458862</v>
+        <v>422652.12576</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>360161970.432</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D40" s="4" t="n">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>795.2666666666607</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>770871066.3999943</v>
+        <v>767426088.904</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>776277309.4560001</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D43" s="4" t="n">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>395.965</v>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>129984166.1981445</v>
+        <v>129984166.1968128</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>130859701.095</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D46" s="4" t="n">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>114604.4921974604</v>
+        <v>114596.72271</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>97653315.67200001</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D49" s="4" t="n">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>363253553.7986667</v>
+        <v>361418415.7586667</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>365586887.688</v>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D52" s="4" t="n">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>59256949.61439</v>
+        <v>59256949.61378291</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>140867.1</v>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D55" s="4" t="n">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>547748.7202364129</v>
+        <v>547711.5862050001</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>466731082.356</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D58" s="4" t="n">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>756423472.9333333</v>
+        <v>752602060.9333334</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>888811</v>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D61" s="4" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>389483272.914824</v>
+        <v>389483272.9108337</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>793040576.064</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D64" s="4" t="n">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>814850.9283714083</v>
+        <v>814795.686435</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>810638.4550000001</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D67" s="4" t="n">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>795.2666666666607</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>224341545.5999983</v>
+        <v>223338976.416</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>263759.76</v>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>866</t>
         </is>
       </c>
       <c r="D70" s="4" t="n">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>132186734.3505445</v>
+        <v>132186734.3491902</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>314237.605</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>845</t>
         </is>
       </c>
       <c r="D73" s="4" t="n">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.939795</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>249421.5859563584</v>
+        <v>249404.67669</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>212529582.408</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>818</t>
         </is>
       </c>
       <c r="D76" s="4" t="n">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>795.2666666666607</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>444025214.33333</v>
+        <v>442040891.7433333</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>447139234.74</v>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D79" s="4" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>606</t>
         </is>
       </c>
       <c r="D82" s="4" t="n">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="C83" s="5" t="n">
-        <v>0.939958729471699</v>
+        <v>0.9398623333333334</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C84" s="5" t="n">
-        <v>768671.9301175303</v>
+        <v>768593.1000546666</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>764616.8200000001</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>651</t>
         </is>
       </c>
       <c r="D85" s="4" t="n">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>795.2666666666607</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>573835797.0666624</v>
+        <v>571271358.6106666</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>577860200.016</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D88" s="4" t="n">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>800.8440000000001</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>1327833.943304</v>
+        <v>1327833.943290396</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>2703649.344</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>782</t>
         </is>
       </c>
       <c r="D91" s="4" t="n">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>0.939958729471699</v>
+        <v>0.939795</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="C93" s="5" t="n">
-        <v>459709.3756576417</v>
+        <v>459629.29983</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>457284.19</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D94" s="4" t="n">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>795.2666666666607</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>395.965</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>4158449.399999969</v>
+        <v>4139865.534</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>2070500.985</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D97" s="4" t="n">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>800.8440000000001</v>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>83068284.6048</v>
+        <v>83068284.60394895</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>169138252.8</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>711</t>
         </is>
       </c>
       <c r="D100" s="4" t="n">
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.939958729471699</v>
+        <v>0.939795</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>800.8440000000001</v>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>642831.1953745886</v>
+        <v>642719.221935</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>547691605.692</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>785</t>
         </is>
       </c>
       <c r="D103" s="4" t="n">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.8015414241576</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>800.8440000000001</v>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>689024120.334</v>
+        <v>685620162.9176366</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>693450018.756</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D106" s="4" t="n">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>214762980.962728</v>
+        <v>214762980.9605277</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>510539.92</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D109" s="4" t="n">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="C110" s="5" t="n">
-        <v>0.939958729471699</v>
+        <v>0.939795</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C111" s="5" t="n">
-        <v>605451.8565796876</v>
+        <v>605346.39417</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>602257.8100000001</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D112" s="4" t="n">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>279465291.1966667</v>
+        <v>278053447.0966667</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>328376.675</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D115" s="4" t="n">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>395.965</v>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>59164520.4151375</v>
+        <v>59164520.41453135</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>59563035.12499999</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D118" s="4" t="n">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="C119" s="5" t="n">
-        <v>0.939858716704066</v>
+        <v>0.9398623333333334</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="C120" s="5" t="n">
-        <v>323412.9032876027</v>
+        <v>323414.1477986667</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>321740.98</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D121" s="4" t="n">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>795.2666666666607</v>
+        <v>791.8015414241576</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>450393709.7999966</v>
+        <v>448431260.3747817</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>529530.7050000001</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>976</t>
         </is>
       </c>
       <c r="D124" s="4" t="n">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0.9350000000000001</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>78902677.5865735</v>
+        <v>78902677.58576514</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>187569.415</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D127" s="4" t="n">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C128" s="5" t="n">
-        <v>0.939858716704066</v>
+        <v>0.9398623333333334</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="C129" s="5" t="n">
-        <v>690361.9420503712</v>
+        <v>690364.598602</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>686793.03</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D130" s="4" t="n">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>800.8440000000001</v>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>342161068.0033333</v>
+        <v>340432488.1033334</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>344358915.78</v>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D133" s="4" t="n">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>393.3157415</v>
+        <v>393.3157414959704</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>800.8440000000001</v>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>141863874.8544105</v>
+        <v>141863874.8529571</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>288854019.828</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D136" s="4" t="n">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="C137" s="5" t="n">
-        <v>0.939958729471699</v>
+        <v>0.939795</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>0.9350000000000001</v>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="C138" s="5" t="n">
-        <v>671623.0712170362</v>
+        <v>671506.08258</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>668079.9400000001</v>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>777</t>
         </is>
       </c>
       <c r="D139" s="4" t="n">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D140" s="2" t="n">
         <v>395.965</v>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>608943971.9586667</v>
+        <v>605867618.7186667</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>303016967.83</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D142" s="4" t="n">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>648</t>
         </is>
       </c>
       <c r="D145" s="4" t="n">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>0.939858716704066</v>
+        <v>0.9398623333333334</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>395.965</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>271352.2492519311</v>
+        <v>271353.2934306667</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>114321430.94</v>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D148" s="4" t="n">
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>795.7326666666667</v>
+        <v>791.7126666666667</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>800.8440000000001</v>
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>571727555.1386666</v>
+        <v>568839217.2986667</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>575400007.248</v>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
